--- a/Journals/Journals/2021 - Fall.xlsx
+++ b/Journals/Journals/2021 - Fall.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/dfeldt_uwaterloo_ca/Documents/DAVID/Personal/Projects/2023/Mood Ai/Journals/Journals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_74F4CE5D1D47AF9A20CBABA6861DE2DF06294110" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A969A8A1-B775-4590-A9E3-733E2097886E}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="September" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="October" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="November" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="December" sheetId="4" r:id="rId7"/>
+    <sheet name="September" sheetId="1" r:id="rId1"/>
+    <sheet name="October" sheetId="2" r:id="rId2"/>
+    <sheet name="November" sheetId="3" r:id="rId3"/>
+    <sheet name="December" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Mood</t>
   </si>
@@ -90,32 +99,40 @@
   <si>
     <t xml:space="preserve">Company </t>
   </si>
+  <si>
+    <t>Productivity (hrs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
-    <numFmt numFmtId="165" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
@@ -125,66 +142,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -374,20 +372,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -433,66 +436,66 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>44440.0</v>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>44440</v>
       </c>
       <c r="B2" s="2">
         <v>7.5</v>
       </c>
       <c r="C2" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>3.5</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
         <v>3.5</v>
       </c>
       <c r="I2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>44441.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>44441</v>
       </c>
       <c r="B3" s="2">
         <v>7.5</v>
@@ -504,51 +507,51 @@
         <v>3.5</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>3.5</v>
       </c>
       <c r="I3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>44442.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>44442</v>
       </c>
       <c r="B4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>9.5</v>
@@ -557,10 +560,10 @@
         <v>4.5</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>2.5</v>
@@ -569,36 +572,36 @@
         <v>3.5</v>
       </c>
       <c r="I4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>44443.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>44443</v>
       </c>
       <c r="B5" s="2">
         <v>6.5</v>
@@ -607,13 +610,13 @@
         <v>9.5</v>
       </c>
       <c r="D5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>2.5</v>
@@ -622,39 +625,39 @@
         <v>3.5</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>44444.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>44444</v>
       </c>
       <c r="B6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>9.5</v>
@@ -663,10 +666,10 @@
         <v>3.5</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>2.5</v>
@@ -675,36 +678,36 @@
         <v>3.5</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>44445.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>44445</v>
       </c>
       <c r="B7" s="2">
         <v>5.5</v>
@@ -716,10 +719,10 @@
         <v>5.5</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <v>2.5</v>
@@ -728,89 +731,89 @@
         <v>3.5</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>44446.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>44446</v>
       </c>
       <c r="B8" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>6.5</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
         <v>3.5</v>
       </c>
       <c r="I8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>44447.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>44447</v>
       </c>
       <c r="B9" s="2">
         <v>4.5</v>
@@ -822,10 +825,10 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>4.5</v>
@@ -834,39 +837,39 @@
         <v>3.5</v>
       </c>
       <c r="I9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>44448.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>44448</v>
       </c>
       <c r="B10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>9.5</v>
@@ -875,63 +878,63 @@
         <v>3.5</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
         <v>3.5</v>
       </c>
       <c r="I10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>44449.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>44449</v>
       </c>
       <c r="B11" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D11" s="2">
         <v>3.5</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
         <v>3.5</v>
@@ -940,39 +943,39 @@
         <v>3.5</v>
       </c>
       <c r="I11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>44450.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>44450</v>
       </c>
       <c r="B12" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>9.75</v>
@@ -981,51 +984,51 @@
         <v>3.5</v>
       </c>
       <c r="E12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
         <v>3.5</v>
       </c>
       <c r="I12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>44451.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>44451</v>
       </c>
       <c r="B13" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>9.75</v>
@@ -1034,10 +1037,10 @@
         <v>4.75</v>
       </c>
       <c r="E13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
         <v>4.5</v>
@@ -1046,39 +1049,39 @@
         <v>3.5</v>
       </c>
       <c r="I13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>44452.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>44452</v>
       </c>
       <c r="B14" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>9.5</v>
@@ -1087,63 +1090,63 @@
         <v>4.75</v>
       </c>
       <c r="E14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2">
         <v>3.5</v>
       </c>
       <c r="I14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>44453.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>44453</v>
       </c>
       <c r="B15" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
         <v>4.25</v>
@@ -1152,154 +1155,154 @@
         <v>3.5</v>
       </c>
       <c r="I15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>44454.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>44454</v>
       </c>
       <c r="B16" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>2.5</v>
       </c>
       <c r="G16" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2">
         <v>3.5</v>
       </c>
       <c r="I16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>44455.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>44455</v>
       </c>
       <c r="B17" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>3.75</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>2.5</v>
       </c>
       <c r="G17" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
         <v>3.5</v>
       </c>
       <c r="I17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>44456.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>44456</v>
       </c>
       <c r="B18" s="2">
         <v>6.6</v>
       </c>
       <c r="C18" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>3.5</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <v>1.75</v>
@@ -1311,36 +1314,36 @@
         <v>3.5</v>
       </c>
       <c r="I18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>44457.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>44457</v>
       </c>
       <c r="B19" s="2">
         <v>6.6</v>
@@ -1349,116 +1352,116 @@
         <v>11.25</v>
       </c>
       <c r="D19" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>1.75</v>
       </c>
       <c r="G19" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H19" s="2">
         <v>3.5</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>44458.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>44458</v>
       </c>
       <c r="B20" s="2">
         <v>6.5</v>
       </c>
       <c r="C20" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>2.75</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <v>2.5</v>
       </c>
       <c r="G20" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2">
         <v>4.5</v>
       </c>
       <c r="I20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>44459.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>44459</v>
       </c>
       <c r="B21" s="2">
         <v>6.6</v>
       </c>
       <c r="C21" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>1.5</v>
@@ -1467,54 +1470,54 @@
         <v>5.5</v>
       </c>
       <c r="H21" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>44460.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>44460</v>
       </c>
       <c r="B22" s="2">
         <v>6.5</v>
       </c>
       <c r="C22" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
         <v>3.25</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
         <v>5.5</v>
@@ -1523,36 +1526,36 @@
         <v>4.5</v>
       </c>
       <c r="I22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <v>44461.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>44461</v>
       </c>
       <c r="B23" s="2">
         <v>5.5</v>
@@ -1564,54 +1567,54 @@
         <v>3.25</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>44462.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>44462</v>
       </c>
       <c r="B24" s="2">
         <v>5.5</v>
       </c>
       <c r="C24" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2">
         <v>3.5</v>
@@ -1620,45 +1623,45 @@
         <v>3.5</v>
       </c>
       <c r="F24" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>4.5</v>
       </c>
       <c r="I24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>44463.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>44463</v>
       </c>
       <c r="B25" s="2">
         <v>6.5</v>
@@ -1667,210 +1670,210 @@
         <v>9.5</v>
       </c>
       <c r="D25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2">
         <v>0.5</v>
       </c>
       <c r="F25" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>44464.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>44464</v>
       </c>
       <c r="B26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
         <v>2.5</v>
       </c>
       <c r="H26" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>44465.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.3">
+      <c r="A27" s="3">
+        <v>44465</v>
       </c>
       <c r="B27" s="2">
         <v>5.5</v>
       </c>
       <c r="C27" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>4.5</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>1.5</v>
       </c>
       <c r="G27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>44466.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="12.3">
+      <c r="A28" s="3">
+        <v>44466</v>
       </c>
       <c r="B28" s="2">
         <v>4.5</v>
       </c>
       <c r="C28" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>5.5</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
         <v>4.5</v>
       </c>
       <c r="I28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>44467.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.3">
+      <c r="A29" s="3">
+        <v>44467</v>
       </c>
       <c r="B29" s="2">
         <v>7.5</v>
@@ -1885,7 +1888,7 @@
         <v>0.5</v>
       </c>
       <c r="F29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <v>2.5</v>
@@ -1894,48 +1897,48 @@
         <v>5.5</v>
       </c>
       <c r="I29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>44468.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12.3">
+      <c r="A30" s="3">
+        <v>44468</v>
       </c>
       <c r="B30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2">
         <v>3.5</v>
       </c>
       <c r="E30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>0.5</v>
@@ -1944,51 +1947,51 @@
         <v>2.5</v>
       </c>
       <c r="H30" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
-        <v>44469.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.3">
+      <c r="A31" s="3">
+        <v>44469</v>
       </c>
       <c r="B31" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>0.5</v>
@@ -2000,49 +2003,50 @@
         <v>5.25</v>
       </c>
       <c r="I31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2056,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2088,19 +2092,19 @@
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>44470.0</v>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>44470</v>
       </c>
       <c r="B2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>10.5</v>
@@ -2109,63 +2113,63 @@
         <v>2.75</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>44471.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>44471</v>
       </c>
       <c r="B3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>1.75</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>1.5</v>
@@ -2174,54 +2178,54 @@
         <v>3.5</v>
       </c>
       <c r="H3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>44472.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>44472</v>
       </c>
       <c r="B4" s="2">
         <v>5.5</v>
       </c>
       <c r="C4" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>1.5</v>
@@ -2230,48 +2234,48 @@
         <v>3.5</v>
       </c>
       <c r="H4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>44473.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>44473</v>
       </c>
       <c r="B5" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>3.5</v>
@@ -2280,166 +2284,166 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
         <v>3.5</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>44474.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>44474</v>
       </c>
       <c r="B6" s="2">
         <v>5.5</v>
       </c>
       <c r="C6" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>0.75</v>
       </c>
       <c r="G6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>44475.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>44475</v>
       </c>
       <c r="B7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>3.5</v>
       </c>
       <c r="E7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>5.25</v>
       </c>
       <c r="H7" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>44476.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>44476</v>
       </c>
       <c r="B8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>3.5</v>
@@ -2448,7 +2452,7 @@
         <v>5.5</v>
       </c>
       <c r="F8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>2.5</v>
@@ -2457,45 +2461,45 @@
         <v>3.5</v>
       </c>
       <c r="I8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>44477.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>44477</v>
       </c>
       <c r="B9" s="2">
         <v>4.5</v>
       </c>
       <c r="C9" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>2.5</v>
@@ -2504,48 +2508,48 @@
         <v>4.5</v>
       </c>
       <c r="F9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
         <v>2.25</v>
       </c>
       <c r="H9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>44478.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>44478</v>
       </c>
       <c r="B10" s="2">
         <v>4.5</v>
@@ -2554,10 +2558,10 @@
         <v>11.5</v>
       </c>
       <c r="D10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>1.75</v>
@@ -2569,45 +2573,45 @@
         <v>3.6</v>
       </c>
       <c r="I10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>44479.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>44479</v>
       </c>
       <c r="B11" s="2">
         <v>4.5</v>
       </c>
       <c r="C11" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>2.25</v>
@@ -2616,54 +2620,54 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
         <v>5.5</v>
       </c>
       <c r="I11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>44480.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>44480</v>
       </c>
       <c r="B12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>2.5</v>
@@ -2672,7 +2676,7 @@
         <v>1.5</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>1.5</v>
@@ -2681,39 +2685,39 @@
         <v>5.5</v>
       </c>
       <c r="I12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>44481.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>44481</v>
       </c>
       <c r="B13" s="2">
         <v>4.5</v>
@@ -2725,57 +2729,57 @@
         <v>2.6</v>
       </c>
       <c r="E13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>3.5</v>
       </c>
       <c r="I13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>44482.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>44482</v>
       </c>
       <c r="B14" s="2">
         <v>4.5</v>
       </c>
       <c r="C14" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>2.25</v>
@@ -2790,48 +2794,48 @@
         <v>2.5</v>
       </c>
       <c r="H14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>44483.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>44483</v>
       </c>
       <c r="B15" s="2">
         <v>4.5</v>
       </c>
       <c r="C15" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>2.5</v>
@@ -2840,48 +2844,48 @@
         <v>3.25</v>
       </c>
       <c r="F15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>2.5</v>
       </c>
       <c r="H15" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>44484.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>44484</v>
       </c>
       <c r="B16" s="2">
         <v>4.5</v>
@@ -2896,60 +2900,60 @@
         <v>3.25</v>
       </c>
       <c r="F16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>5.25</v>
       </c>
       <c r="I16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>44485.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>44485</v>
       </c>
       <c r="B17" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>11.25</v>
       </c>
       <c r="D17" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
         <v>1.5</v>
@@ -2961,39 +2965,39 @@
         <v>3.5</v>
       </c>
       <c r="I17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>44486.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>44486</v>
       </c>
       <c r="B18" s="2">
         <v>3.5</v>
@@ -3002,10 +3006,10 @@
         <v>11.25</v>
       </c>
       <c r="D18" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
@@ -3014,157 +3018,157 @@
         <v>3.5</v>
       </c>
       <c r="H18" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>44487.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>44487</v>
       </c>
       <c r="B19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>11.25</v>
       </c>
       <c r="D19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <v>6.5</v>
       </c>
       <c r="F19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>44488.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>44488</v>
       </c>
       <c r="B20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>11.25</v>
       </c>
       <c r="D20" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2">
         <v>6.5</v>
       </c>
       <c r="F20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>44489.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>44489</v>
       </c>
       <c r="B21" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>11.25</v>
@@ -3176,51 +3180,51 @@
         <v>6.5</v>
       </c>
       <c r="F21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>44490.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>44490</v>
       </c>
       <c r="B22" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
         <v>11.25</v>
@@ -3232,51 +3236,51 @@
         <v>6.5</v>
       </c>
       <c r="F22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <v>44491.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>44491</v>
       </c>
       <c r="B23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <v>11.25</v>
@@ -3285,54 +3289,54 @@
         <v>3.5</v>
       </c>
       <c r="E23" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>4.5</v>
       </c>
       <c r="I23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>44492.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>44492</v>
       </c>
       <c r="B24" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>11.25</v>
@@ -3344,216 +3348,216 @@
         <v>3.5</v>
       </c>
       <c r="F24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>4.25</v>
       </c>
       <c r="I24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>44493.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>44493</v>
       </c>
       <c r="B25" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>4.25</v>
       </c>
       <c r="I25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>44494.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>44494</v>
       </c>
       <c r="B26" s="2">
         <v>3.5</v>
       </c>
       <c r="C26" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
         <v>3.5</v>
       </c>
       <c r="E26" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
         <v>4.25</v>
       </c>
       <c r="I26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>44495.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.3">
+      <c r="A27" s="3">
+        <v>44495</v>
       </c>
       <c r="B27" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2">
         <v>11.5</v>
       </c>
       <c r="D27" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>0.5</v>
       </c>
       <c r="G27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2">
         <v>4.25</v>
       </c>
       <c r="I27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>44496.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.3">
+      <c r="A28" s="3">
+        <v>44496</v>
       </c>
       <c r="B28" s="2">
         <v>3.5</v>
@@ -3565,51 +3569,51 @@
         <v>3.5</v>
       </c>
       <c r="E28" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
         <v>4.25</v>
       </c>
       <c r="I28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>44497.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.3">
+      <c r="A29" s="3">
+        <v>44497</v>
       </c>
       <c r="B29" s="2">
         <v>3.5</v>
@@ -3618,10 +3622,10 @@
         <v>11.5</v>
       </c>
       <c r="D29" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
         <v>1.5</v>
@@ -3633,42 +3637,42 @@
         <v>5.5</v>
       </c>
       <c r="I29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>44498.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.3">
+      <c r="A30" s="3">
+        <v>44498</v>
       </c>
       <c r="B30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>10.75</v>
@@ -3683,104 +3687,104 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
         <v>5.5</v>
       </c>
       <c r="I30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
-        <v>44499.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.3">
+      <c r="A31" s="3">
+        <v>44499</v>
       </c>
       <c r="B31" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>2.5</v>
       </c>
       <c r="E31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
         <v>0.5</v>
       </c>
       <c r="G31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4">
-        <v>44500.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.3">
+      <c r="A32" s="3">
+        <v>44500</v>
       </c>
       <c r="B32" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>10.75</v>
@@ -3795,61 +3799,62 @@
         <v>0.5</v>
       </c>
       <c r="G32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.88"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3864,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3895,16 +3900,16 @@
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>44501.0</v>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>44501</v>
       </c>
       <c r="B2" s="2">
         <v>4.5</v>
@@ -3916,169 +3921,169 @@
         <v>2.5</v>
       </c>
       <c r="E2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>44502.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>44502</v>
       </c>
       <c r="B3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>2.25</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>1.5</v>
       </c>
       <c r="I3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>44503.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>44503</v>
       </c>
       <c r="B4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>2.5</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>1.75</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <v>1.5</v>
       </c>
       <c r="I4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>44504.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>44504</v>
       </c>
       <c r="B5" s="2">
         <v>3.5</v>
       </c>
       <c r="C5" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>2.75</v>
@@ -4087,110 +4092,110 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
         <v>1.5</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>44505.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>44505</v>
       </c>
       <c r="B6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>10.5</v>
       </c>
       <c r="D6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>2.5</v>
       </c>
       <c r="F6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>44506.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>44506</v>
       </c>
       <c r="B7" s="2">
         <v>3.5</v>
       </c>
       <c r="C7" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>2.75</v>
@@ -4199,54 +4204,54 @@
         <v>3.5</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>44507.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>44507</v>
       </c>
       <c r="B8" s="2">
         <v>3.5</v>
       </c>
       <c r="C8" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>2.75</v>
@@ -4255,63 +4260,63 @@
         <v>2.75</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>1.5</v>
       </c>
       <c r="I8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>44508.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>44508</v>
       </c>
       <c r="B9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>2.75</v>
       </c>
       <c r="E9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>2.5</v>
@@ -4320,54 +4325,54 @@
         <v>1.5</v>
       </c>
       <c r="I9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>44509.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>44509</v>
       </c>
       <c r="B10" s="2">
         <v>3.5</v>
       </c>
       <c r="C10" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>1.5</v>
@@ -4376,54 +4381,54 @@
         <v>1.5</v>
       </c>
       <c r="I10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>44510.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>44510</v>
       </c>
       <c r="B11" s="2">
         <v>3.5</v>
       </c>
       <c r="C11" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>3.5</v>
       </c>
       <c r="E11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>1.5</v>
@@ -4432,101 +4437,101 @@
         <v>3.5</v>
       </c>
       <c r="I11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>44511.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>44511</v>
       </c>
       <c r="B12" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>2.5</v>
       </c>
       <c r="F12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
         <v>1.5</v>
       </c>
       <c r="I12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>44512.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>44512</v>
       </c>
       <c r="B13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>1.5</v>
@@ -4535,384 +4540,384 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>1.5</v>
       </c>
       <c r="I13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>44513.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>44513</v>
       </c>
       <c r="B14" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
         <v>2.5</v>
       </c>
       <c r="F14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>1.5</v>
       </c>
       <c r="I14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>44514.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>44514</v>
       </c>
       <c r="B15" s="2">
         <v>2.5</v>
       </c>
       <c r="C15" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>2.6</v>
       </c>
       <c r="E15" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <v>1.5</v>
       </c>
       <c r="I15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>44515.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>44515</v>
       </c>
       <c r="B16" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>1.5</v>
       </c>
       <c r="E16" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <v>1.5</v>
       </c>
       <c r="I16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>44516.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>44516</v>
       </c>
       <c r="B17" s="2">
         <v>1.5</v>
       </c>
       <c r="C17" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>1.5</v>
       </c>
       <c r="E17" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>1.5</v>
       </c>
       <c r="I17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>44517.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>44517</v>
       </c>
       <c r="B18" s="2">
         <v>1.5</v>
       </c>
       <c r="C18" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>1.5</v>
       </c>
       <c r="E18" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>1.5</v>
       </c>
       <c r="I18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>44518.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>44518</v>
       </c>
       <c r="B19" s="2">
         <v>1.5</v>
       </c>
       <c r="C19" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>1.5</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>44519.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>44519</v>
       </c>
       <c r="B20" s="2">
         <v>1.5</v>
@@ -4921,508 +4926,508 @@
         <v>10.5</v>
       </c>
       <c r="D20" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>1.5</v>
       </c>
       <c r="I20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>44520.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>44520</v>
       </c>
       <c r="B21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
       </c>
       <c r="E21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>5.5</v>
       </c>
       <c r="I21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>44521.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>44521</v>
       </c>
       <c r="B22" s="2">
         <v>1.5</v>
       </c>
       <c r="C22" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>1.25</v>
       </c>
       <c r="E22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <v>44522.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>44522</v>
       </c>
       <c r="B23" s="2">
         <v>1.5</v>
       </c>
       <c r="C23" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <v>1.5</v>
       </c>
       <c r="I23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>44523.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>44523</v>
       </c>
       <c r="B24" s="2">
         <v>1.5</v>
       </c>
       <c r="C24" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2">
         <v>1.5</v>
       </c>
       <c r="E24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
         <v>1.5</v>
       </c>
       <c r="I24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>44524.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>44524</v>
       </c>
       <c r="B25" s="2">
         <v>1.5</v>
       </c>
       <c r="C25" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
         <v>0.9</v>
       </c>
       <c r="E25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
         <v>1.5</v>
       </c>
       <c r="I25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>44525.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>44525</v>
       </c>
       <c r="B26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
         <v>1.5</v>
       </c>
       <c r="I26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>44526.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.3">
+      <c r="A27" s="3">
+        <v>44526</v>
       </c>
       <c r="B27" s="2">
         <v>0.5</v>
       </c>
       <c r="C27" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
         <v>1.5</v>
       </c>
       <c r="E27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>1.5</v>
       </c>
       <c r="I27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>44527.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.3">
+      <c r="A28" s="3">
+        <v>44527</v>
       </c>
       <c r="B28" s="2">
         <v>0.5</v>
       </c>
       <c r="C28" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
         <v>1.5</v>
       </c>
       <c r="E28" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
         <v>1.5</v>
       </c>
       <c r="I28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>44528.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.3">
+      <c r="A29" s="3">
+        <v>44528</v>
       </c>
       <c r="B29" s="2">
         <v>0.5</v>
       </c>
       <c r="C29" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2">
         <v>2.5</v>
@@ -5431,54 +5436,54 @@
         <v>1.5</v>
       </c>
       <c r="F29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>44529.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.3">
+      <c r="A30" s="3">
+        <v>44529</v>
       </c>
       <c r="B30" s="2">
         <v>0.5</v>
       </c>
       <c r="C30" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
         <v>1.5</v>
@@ -5487,120 +5492,121 @@
         <v>1.5</v>
       </c>
       <c r="F30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>1.5</v>
       </c>
       <c r="I30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
-        <v>44530.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.3">
+      <c r="A31" s="3">
+        <v>44530</v>
       </c>
       <c r="B31" s="2">
         <v>0.5</v>
       </c>
       <c r="C31" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2">
         <v>1.5</v>
       </c>
       <c r="F31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
         <v>1.5</v>
       </c>
       <c r="I31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.3">
+      <c r="A32" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5610,7 +5616,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5649,19 +5655,19 @@
       <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>44531.0</v>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>44531</v>
       </c>
       <c r="B2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>2.75</v>
@@ -5670,110 +5676,110 @@
         <v>3.5</v>
       </c>
       <c r="F2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0.5</v>
       </c>
       <c r="I2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>44532.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>44532</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>3.5</v>
       </c>
       <c r="F3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0.5</v>
       </c>
       <c r="I3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>44533.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>44533</v>
       </c>
       <c r="B4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>1.5</v>
@@ -5785,611 +5791,611 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>4.5</v>
       </c>
       <c r="I4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>44534.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>44534</v>
       </c>
       <c r="B5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>2.25</v>
       </c>
       <c r="E5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>44535.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>44535</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>0.5</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>4.5</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>44536.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>44536</v>
       </c>
       <c r="B7" s="2">
         <v>2.5</v>
       </c>
       <c r="C7" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>0.5</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>44537.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>44537</v>
       </c>
       <c r="B8" s="2">
         <v>2.5</v>
       </c>
       <c r="C8" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>2.75</v>
       </c>
       <c r="E8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>44538.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>44538</v>
       </c>
       <c r="B9" s="2">
         <v>2.5</v>
       </c>
       <c r="C9" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>1.75</v>
       </c>
       <c r="E9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>44539.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>44539</v>
       </c>
       <c r="B10" s="2">
         <v>2.5</v>
       </c>
       <c r="C10" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>3.5</v>
       </c>
       <c r="F10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>44540.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>44540</v>
       </c>
       <c r="B11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>1.5</v>
       </c>
       <c r="I11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>44541.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>44541</v>
       </c>
       <c r="B12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>3.75</v>
       </c>
       <c r="E12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>44542.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>44542</v>
       </c>
       <c r="B13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>3.5</v>
       </c>
       <c r="I13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>44543.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>44543</v>
       </c>
       <c r="B14" s="2">
         <v>2.5</v>
       </c>
       <c r="C14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>1.5</v>
       </c>
       <c r="I14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>44544.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>44544</v>
       </c>
       <c r="B15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>2.5</v>
@@ -6401,54 +6407,54 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>1.5</v>
       </c>
       <c r="I15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>44545.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>44545</v>
       </c>
       <c r="B16" s="2">
         <v>2.5</v>
       </c>
       <c r="C16" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2">
         <v>3.5</v>
@@ -6457,54 +6463,54 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>1.5</v>
       </c>
       <c r="I16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>44546.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>44546</v>
       </c>
       <c r="B17" s="2">
         <v>2.5</v>
       </c>
       <c r="C17" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
         <v>3.5</v>
@@ -6513,437 +6519,437 @@
         <v>1.5</v>
       </c>
       <c r="G17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
         <v>1.5</v>
       </c>
       <c r="I17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>44547.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>44547</v>
       </c>
       <c r="B18" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>1.5</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <v>3.5</v>
       </c>
       <c r="G18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
         <v>1.5</v>
       </c>
       <c r="I18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>44548.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>44548</v>
       </c>
       <c r="B19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>2.25</v>
       </c>
       <c r="E19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
         <v>1.5</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>44549.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>44549</v>
       </c>
       <c r="B20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <v>2.5</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
         <v>1.5</v>
       </c>
       <c r="I20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>44550.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>44550</v>
       </c>
       <c r="B21" s="2">
         <v>2.5</v>
       </c>
       <c r="C21" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
         <v>2.5</v>
       </c>
       <c r="E21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>1.5</v>
       </c>
       <c r="I21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>44551.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>44551</v>
       </c>
       <c r="B22" s="2">
         <v>2.5</v>
       </c>
       <c r="C22" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>2.75</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <v>1.5</v>
       </c>
       <c r="I22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <v>44552.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>44552</v>
       </c>
       <c r="B23" s="2">
         <v>2.5</v>
       </c>
       <c r="C23" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2">
         <v>3.5</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <v>1.5</v>
       </c>
       <c r="I23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>44553.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>44553</v>
       </c>
       <c r="B24" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2">
         <v>3.5</v>
       </c>
       <c r="E24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>44554.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>44554</v>
       </c>
       <c r="B25" s="2">
         <v>3.5</v>
@@ -6952,225 +6958,225 @@
         <v>10.5</v>
       </c>
       <c r="D25" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>1.5</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
         <v>3.5</v>
       </c>
       <c r="I25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>44555.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>44555</v>
       </c>
       <c r="B26" s="2">
         <v>2.5</v>
       </c>
       <c r="C26" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
         <v>1.5</v>
       </c>
       <c r="E26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
         <v>1.5</v>
       </c>
       <c r="I26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>44556.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.3">
+      <c r="A27" s="3">
+        <v>44556</v>
       </c>
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
       <c r="C27" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
         <v>2.5</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>4.5</v>
       </c>
       <c r="G27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>1.5</v>
       </c>
       <c r="I27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>44557.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.3">
+      <c r="A28" s="3">
+        <v>44557</v>
       </c>
       <c r="B28" s="2">
         <v>2.5</v>
       </c>
       <c r="C28" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
         <v>1.5</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>4.5</v>
       </c>
       <c r="G28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
         <v>1.5</v>
       </c>
       <c r="I28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>44558.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.3">
+      <c r="A29" s="3">
+        <v>44558</v>
       </c>
       <c r="B29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
         <v>11.5</v>
@@ -7179,54 +7185,54 @@
         <v>1.5</v>
       </c>
       <c r="E29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <v>4.5</v>
       </c>
       <c r="G29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
         <v>1.5</v>
       </c>
       <c r="I29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>44559.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.3">
+      <c r="A30" s="3">
+        <v>44559</v>
       </c>
       <c r="B30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>11.5</v>
@@ -7235,54 +7241,54 @@
         <v>1.5</v>
       </c>
       <c r="E30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>1.5</v>
       </c>
       <c r="I30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
-        <v>44560.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.3">
+      <c r="A31" s="3">
+        <v>44560</v>
       </c>
       <c r="B31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
         <v>11.5</v>
@@ -7291,105 +7297,105 @@
         <v>3.5</v>
       </c>
       <c r="E31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
         <v>1.5</v>
       </c>
       <c r="I31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4">
-        <v>44561.0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.3">
+      <c r="A32" s="3">
+        <v>44561</v>
       </c>
       <c r="B32" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
         <v>3.5</v>
       </c>
       <c r="I32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>